--- a/reference/rahjmuw/rahjmuw.xlsx
+++ b/reference/rahjmuw/rahjmuw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="1019">
   <si>
     <t>ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Bushnaq (Rizvan)</t>
   </si>
   <si>
-    <t>هجايليش بشناق</t>
+    <t>بشناق (رضوان بيجوفيتش)</t>
   </si>
   <si>
     <t>root of Hadzalic family</t>
@@ -90,7 +90,7 @@
     <t>Bushnaq (Hadzalic)</t>
   </si>
   <si>
-    <t>بشناق (حجايلش)</t>
+    <t>بشناق (هجايلش)</t>
   </si>
   <si>
     <t>Habiba Hanim (Neno)</t>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>بهية</t>
-  </si>
-  <si>
-    <t>بشناق</t>
   </si>
   <si>
     <t>Ruqayya</t>
@@ -891,6 +888,9 @@
     <t>Firial</t>
   </si>
   <si>
+    <t>فريال</t>
+  </si>
+  <si>
     <t>named after the the quene of egypt, she fell from the balcony and died later.</t>
   </si>
   <si>
@@ -1011,7 +1011,7 @@
     <t>Bushnaq</t>
   </si>
   <si>
-    <t>بشناق رزوانبيجوفيتش</t>
+    <t>بشناق</t>
   </si>
   <si>
     <t>Rizvanbegovic (Bushnaq)</t>
@@ -1038,10 +1038,10 @@
     <t>كوثر</t>
   </si>
   <si>
-    <t>Katkhude</t>
-  </si>
-  <si>
-    <t>كاتخودا</t>
+    <t>Katkhuda</t>
+  </si>
+  <si>
+    <t>كتخدا</t>
   </si>
   <si>
     <t>Awni</t>
@@ -1077,7 +1077,7 @@
     <t>Bushnaq (Murad)</t>
   </si>
   <si>
-    <t>مورادوفيتش</t>
+    <t>بشناق (مورادوفيتش)</t>
   </si>
   <si>
     <t>Salih</t>
@@ -1176,6 +1176,9 @@
     <t>Al-Rousan</t>
   </si>
   <si>
+    <t>الروزان</t>
+  </si>
+  <si>
     <t>Nader</t>
   </si>
   <si>
@@ -1239,9 +1242,15 @@
     <t>Hind</t>
   </si>
   <si>
+    <t>هند</t>
+  </si>
+  <si>
     <t>Abdel-Shafi</t>
   </si>
   <si>
+    <t>عبد الشافي</t>
+  </si>
+  <si>
     <t>Has children with Nabil</t>
   </si>
   <si>
@@ -1254,9 +1263,15 @@
     <t>Philip</t>
   </si>
   <si>
+    <t>فيليب</t>
+  </si>
+  <si>
     <t>Rizk</t>
   </si>
   <si>
+    <t>رزق</t>
+  </si>
+  <si>
     <t>Has children with Basma</t>
   </si>
   <si>
@@ -1302,9 +1317,15 @@
     <t>Leif</t>
   </si>
   <si>
+    <t>ليف</t>
+  </si>
+  <si>
     <t>Simonsen</t>
   </si>
   <si>
+    <t>زيمونسين</t>
+  </si>
+  <si>
     <t>Leiferic</t>
   </si>
   <si>
@@ -1317,6 +1338,9 @@
     <t>Hamidah</t>
   </si>
   <si>
+    <t>حميدة</t>
+  </si>
+  <si>
     <t>Has children with Dina</t>
   </si>
   <si>
@@ -1359,6 +1383,9 @@
     <t>Sameh</t>
   </si>
   <si>
+    <t>سامح</t>
+  </si>
+  <si>
     <t>Kanaan</t>
   </si>
   <si>
@@ -1371,7 +1398,13 @@
     <t>Ruba</t>
   </si>
   <si>
-    <t>al Haj</t>
+    <t>ربى</t>
+  </si>
+  <si>
+    <t>al-Haj</t>
+  </si>
+  <si>
+    <t>الحاج</t>
   </si>
   <si>
     <t>Rashid</t>
@@ -1386,16 +1419,28 @@
     <t>Daoud</t>
   </si>
   <si>
+    <t>داوود</t>
+  </si>
+  <si>
     <t>Dajani</t>
   </si>
   <si>
+    <t>دجاني</t>
+  </si>
+  <si>
     <t>Maryam</t>
   </si>
   <si>
+    <t>مريم</t>
+  </si>
+  <si>
     <t>Reem</t>
   </si>
   <si>
-    <t>al Hadid</t>
+    <t>al-Hadid</t>
+  </si>
+  <si>
+    <t>الحديد</t>
   </si>
   <si>
     <t>Has children wtih Reem</t>
@@ -1407,9 +1452,15 @@
     <t>Taytan</t>
   </si>
   <si>
+    <t>طيطان</t>
+  </si>
+  <si>
     <t>Laith</t>
   </si>
   <si>
+    <t>ليث</t>
+  </si>
+  <si>
     <t>As'ad</t>
   </si>
   <si>
@@ -1434,18 +1485,33 @@
     <t>Bushnaq (Lufcic)</t>
   </si>
   <si>
-    <t>لوفتشيش بشناق</t>
+    <t xml:space="preserve">بشناق لوفشيش </t>
   </si>
   <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>Haqqi</t>
+    <t>Hakki</t>
   </si>
   <si>
     <t>حقي</t>
   </si>
   <si>
+    <t>Rosalie</t>
+  </si>
+  <si>
+    <t>Verrett</t>
+  </si>
+  <si>
+    <t>Susane</t>
+  </si>
+  <si>
+    <t>Becky</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
     <t>Married to Abdalla, um Nabil</t>
   </si>
   <si>
@@ -1479,6 +1545,12 @@
     <t>Inea</t>
   </si>
   <si>
+    <t>أينيا</t>
+  </si>
+  <si>
+    <t>Vater Muhammad Katkhuda Cohajic</t>
+  </si>
+  <si>
     <t>Fatima Zahra</t>
   </si>
   <si>
@@ -1602,28 +1674,37 @@
     <t>ريناتا</t>
   </si>
   <si>
-    <t>أينيا</t>
-  </si>
-  <si>
     <t>Engler</t>
   </si>
   <si>
+    <t>إنجلر</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>جون</t>
+  </si>
+  <si>
     <t>Overton</t>
   </si>
   <si>
+    <t>أوفرتون</t>
+  </si>
+  <si>
     <t>Summer</t>
   </si>
   <si>
+    <t>سمر</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
     <t>Bushnaq (Lakcic)</t>
   </si>
   <si>
-    <t>بشناق (لكيشش)</t>
+    <t>بشناق (لكشيش)</t>
   </si>
   <si>
     <t>Root of Lakcic family</t>
@@ -1704,12 +1785,21 @@
     <t>Zahida</t>
   </si>
   <si>
+    <t>زهيدة</t>
+  </si>
+  <si>
     <t>Adnan</t>
   </si>
   <si>
+    <t>عدنان</t>
+  </si>
+  <si>
     <t>Masarra</t>
   </si>
   <si>
+    <t>مسرة</t>
+  </si>
+  <si>
     <t>Sana</t>
   </si>
   <si>
@@ -1719,18 +1809,30 @@
     <t>Ilham</t>
   </si>
   <si>
+    <t>إلهام</t>
+  </si>
+  <si>
     <t>Salah</t>
   </si>
   <si>
+    <t>صلاح</t>
+  </si>
+  <si>
     <t>Nasser Al-Din</t>
   </si>
   <si>
+    <t>ناصر الدين</t>
+  </si>
+  <si>
     <t>Aida</t>
   </si>
   <si>
     <t>Hijazi</t>
   </si>
   <si>
+    <t>حجازي</t>
+  </si>
+  <si>
     <t>Muntaha</t>
   </si>
   <si>
@@ -1740,18 +1842,33 @@
     <t>Buthaina</t>
   </si>
   <si>
+    <t>بثينة</t>
+  </si>
+  <si>
     <t>Al-Yaseer</t>
   </si>
   <si>
+    <t>اليسير</t>
+  </si>
+  <si>
     <t>Ikram</t>
   </si>
   <si>
+    <t>إكرام</t>
+  </si>
+  <si>
     <t>Abdul Rahim</t>
   </si>
   <si>
+    <t>عبد الرحيم</t>
+  </si>
+  <si>
     <t>Irshaid</t>
   </si>
   <si>
+    <t>ارشيد</t>
+  </si>
+  <si>
     <t>father of Inea and Habiba</t>
   </si>
   <si>
@@ -2619,7 +2736,7 @@
     <t>pasi</t>
   </si>
   <si>
-    <t>ef puc</t>
+    <t>ef-puc</t>
   </si>
   <si>
     <t>zurlit</t>
@@ -2640,28 +2757,28 @@
     <t>jeuh</t>
   </si>
   <si>
-    <t>ef sucer</t>
-  </si>
-  <si>
-    <t>Dop jwusgtiz vpov Jeuh</t>
+    <t>is-cerov</t>
+  </si>
+  <si>
+    <t>Dop jwusgtiz dbab Jeuh</t>
   </si>
   <si>
     <t>Vunmum</t>
   </si>
   <si>
-    <t>ef Sucer</t>
-  </si>
-  <si>
-    <t>dabak</t>
+    <t>is-Cerov</t>
+  </si>
+  <si>
+    <t>lakim</t>
   </si>
   <si>
     <t>Jeuh</t>
   </si>
   <si>
-    <t>mimzeb</t>
-  </si>
-  <si>
-    <t>daeln</t>
+    <t>zebdar</t>
+  </si>
+  <si>
+    <t>feinc</t>
   </si>
   <si>
     <t>ap'om</t>
@@ -2688,22 +2805,37 @@
     <t>Rahjmuw (Kozwed)</t>
   </si>
   <si>
+    <t>yujuxea</t>
+  </si>
+  <si>
+    <t>tumxehl</t>
+  </si>
+  <si>
+    <t>wiqufe</t>
+  </si>
+  <si>
+    <t>vawqn</t>
+  </si>
+  <si>
+    <t>geqsopej</t>
+  </si>
+  <si>
     <t>Zewcev</t>
   </si>
   <si>
-    <t>Cotbaif co iyzujhu, et Nejol</t>
-  </si>
-  <si>
-    <t>etsum</t>
-  </si>
-  <si>
-    <t>xehia</t>
+    <t>Cotbaif co opdufce, et Nejol</t>
+  </si>
+  <si>
+    <t>ogcoq</t>
+  </si>
+  <si>
+    <t>galoe</t>
   </si>
   <si>
     <t>Viqiz</t>
   </si>
   <si>
-    <t>qu'fev</t>
+    <t>gi'jid</t>
   </si>
   <si>
     <t>Wesliat</t>
@@ -2715,64 +2847,67 @@
     <t>dop jwusgtiz numt Wesliat</t>
   </si>
   <si>
-    <t>wawqeqo</t>
-  </si>
-  <si>
-    <t>pejo, Ila ufcez, goqgal ox qegiid</t>
-  </si>
-  <si>
-    <t>uqao</t>
-  </si>
-  <si>
-    <t>Gatifo hikxu</t>
+    <t>quqcajo</t>
+  </si>
+  <si>
+    <t>hiku, Ila emtof, fanruz em xusuog</t>
+  </si>
+  <si>
+    <t>otei</t>
+  </si>
+  <si>
+    <t>hinuf Gavipxaw Cofxcohi fivizug</t>
+  </si>
+  <si>
+    <t>Gatifo locke</t>
   </si>
   <si>
     <t>Gicad</t>
   </si>
   <si>
-    <t>emoffan</t>
+    <t>odadkem</t>
   </si>
   <si>
     <t>Imreq</t>
   </si>
   <si>
-    <t>Emoffan</t>
-  </si>
-  <si>
-    <t>ruzem</t>
-  </si>
-  <si>
-    <t>xusgu</t>
+    <t>Odadkem</t>
+  </si>
+  <si>
+    <t>qedux</t>
+  </si>
+  <si>
+    <t>yeyxo</t>
   </si>
   <si>
     <t>Nuftoy</t>
   </si>
   <si>
-    <t>Hikxu</t>
-  </si>
-  <si>
-    <t>ogtje</t>
-  </si>
-  <si>
-    <t>hinu</t>
-  </si>
-  <si>
-    <t>fivizjug Idek</t>
-  </si>
-  <si>
-    <t>loc eq Uta</t>
-  </si>
-  <si>
-    <t>kkodade</t>
-  </si>
-  <si>
-    <t>medux</t>
-  </si>
-  <si>
-    <t>yeyxo</t>
-  </si>
-  <si>
-    <t>dop jwusgtiz numt Yeyxo</t>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>ifcbe</t>
+  </si>
+  <si>
+    <t>sazu</t>
+  </si>
+  <si>
+    <t>tejizgap Idek</t>
+  </si>
+  <si>
+    <t>fox eq Uta</t>
+  </si>
+  <si>
+    <t>nvawabi</t>
+  </si>
+  <si>
+    <t>tabed</t>
+  </si>
+  <si>
+    <t>kuzta</t>
+  </si>
+  <si>
+    <t>dop jwusgtiz numt Kuzta</t>
   </si>
   <si>
     <t>Zetiq</t>
@@ -2781,16 +2916,16 @@
     <t>dop jwusgtiz numt Zetiq</t>
   </si>
   <si>
-    <t>fessaaz</t>
-  </si>
-  <si>
-    <t>utej</t>
-  </si>
-  <si>
-    <t>zapoxe</t>
-  </si>
-  <si>
-    <t>et nawait, beuzthaz eq  Uta</t>
+    <t>zivhiov</t>
+  </si>
+  <si>
+    <t>acul</t>
+  </si>
+  <si>
+    <t>facexu</t>
+  </si>
+  <si>
+    <t>et hecuoh, jaukpsih eq  Uta</t>
   </si>
   <si>
     <t>Emami</t>
@@ -2799,157 +2934,157 @@
     <t>et Boku</t>
   </si>
   <si>
-    <t>ivis-vackul</t>
-  </si>
-  <si>
-    <t>acxe</t>
-  </si>
-  <si>
-    <t>xuhecu</t>
-  </si>
-  <si>
-    <t>Uqao</t>
+    <t>ohak-mofzes</t>
+  </si>
+  <si>
+    <t>ibru</t>
+  </si>
+  <si>
+    <t>viteha</t>
+  </si>
+  <si>
+    <t>Otei</t>
   </si>
   <si>
     <t>Yaganb</t>
   </si>
   <si>
-    <t>ohjcac</t>
-  </si>
-  <si>
-    <t>Ohjcac</t>
-  </si>
-  <si>
-    <t>pukp</t>
-  </si>
-  <si>
-    <t>ihohkam</t>
-  </si>
-  <si>
-    <t>lofzes</t>
-  </si>
-  <si>
-    <t>Ihohkam</t>
-  </si>
-  <si>
-    <t>Rahjmuw (ribruv)</t>
-  </si>
-  <si>
-    <t>Yuoj eq fitweh rezetk</t>
-  </si>
-  <si>
-    <t>apnan ofeg</t>
-  </si>
-  <si>
-    <t>Rahjmuw (Ribruv)</t>
-  </si>
-  <si>
-    <t>pizuhoj</t>
-  </si>
-  <si>
-    <t>qikagal</t>
-  </si>
-  <si>
-    <t>amef</t>
-  </si>
-  <si>
-    <t>texmib</t>
-  </si>
-  <si>
-    <t>Amef</t>
-  </si>
-  <si>
-    <t>focop</t>
-  </si>
-  <si>
-    <t>Ofeg</t>
-  </si>
-  <si>
-    <t>ing</t>
-  </si>
-  <si>
-    <t>gamoe</t>
-  </si>
-  <si>
-    <t>pfelus</t>
-  </si>
-  <si>
-    <t>hqefene</t>
-  </si>
-  <si>
-    <t>ifjitah</t>
-  </si>
-  <si>
-    <t>Hqefene</t>
-  </si>
-  <si>
-    <t>nivi</t>
+    <t>ancfeg</t>
+  </si>
+  <si>
+    <t>Ancfeg</t>
+  </si>
+  <si>
+    <t>pizl</t>
+  </si>
+  <si>
+    <t>uhojqik</t>
+  </si>
+  <si>
+    <t>sagfal</t>
+  </si>
+  <si>
+    <t>Uhojqik</t>
+  </si>
+  <si>
+    <t>Rahjmuw (meftex)</t>
+  </si>
+  <si>
+    <t>Yuoj eq mibfoc rezetk</t>
+  </si>
+  <si>
+    <t>opnam opel</t>
+  </si>
+  <si>
+    <t>Rahjmuw (Meftex)</t>
+  </si>
+  <si>
+    <t>fusiqef</t>
+  </si>
+  <si>
+    <t>xenepif</t>
+  </si>
+  <si>
+    <t>itah</t>
+  </si>
+  <si>
+    <t>nivxif</t>
+  </si>
+  <si>
+    <t>Itah</t>
+  </si>
+  <si>
+    <t>duyob</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>ajl</t>
+  </si>
+  <si>
+    <t>tujeo</t>
+  </si>
+  <si>
+    <t>hzujek</t>
+  </si>
+  <si>
+    <t>jqebucu</t>
+  </si>
+  <si>
+    <t>iyyusob</t>
+  </si>
+  <si>
+    <t>Jqebucu</t>
+  </si>
+  <si>
+    <t>vabi</t>
   </si>
   <si>
     <t>Yiefo</t>
   </si>
   <si>
-    <t>Yuoj eq fuyob rezetk</t>
-  </si>
-  <si>
-    <t>jiluje</t>
-  </si>
-  <si>
-    <t>Wawqeqo</t>
-  </si>
-  <si>
-    <t>ohzuj</t>
-  </si>
-  <si>
-    <t>pekebqu</t>
-  </si>
-  <si>
-    <t>cudi</t>
-  </si>
-  <si>
-    <t>uyyus</t>
-  </si>
-  <si>
-    <t>babit</t>
-  </si>
-  <si>
-    <t>Vunmum ic-yuh</t>
-  </si>
-  <si>
-    <t>uizu</t>
-  </si>
-  <si>
-    <t>gizole</t>
-  </si>
-  <si>
-    <t>suphowa</t>
-  </si>
-  <si>
-    <t>kovqaeze</t>
-  </si>
-  <si>
-    <t>ot-povaof</t>
-  </si>
-  <si>
-    <t>enmeh</t>
-  </si>
-  <si>
-    <t>ezdog loxog</t>
-  </si>
-  <si>
-    <t>ejdcooh</t>
-  </si>
-  <si>
-    <t>goqgal eq Uqao abm Wiveri</t>
-  </si>
-  <si>
-    <t>xoctox eq Uqao abm Wiveri</t>
-  </si>
-  <si>
-    <t>Puc awa, goqgal eq mipkeel abm Gavipxaw</t>
-  </si>
-  <si>
-    <t>xoctox eq Mipkeel abm Gavipxaw</t>
+    <t>Yuoj eq ticuh rezetk</t>
+  </si>
+  <si>
+    <t>guzugi</t>
+  </si>
+  <si>
+    <t>Quqcajo</t>
+  </si>
+  <si>
+    <t>olxes</t>
+  </si>
+  <si>
+    <t>mupowta</t>
+  </si>
+  <si>
+    <t>kova</t>
+  </si>
+  <si>
+    <t>alzez</t>
+  </si>
+  <si>
+    <t>cegot</t>
+  </si>
+  <si>
+    <t>Vunmum ov-naf</t>
+  </si>
+  <si>
+    <t>eehe</t>
+  </si>
+  <si>
+    <t>zogoxo</t>
+  </si>
+  <si>
+    <t>gejdowo</t>
+  </si>
+  <si>
+    <t>hoctouxa</t>
+  </si>
+  <si>
+    <t>am-dipeel</t>
+  </si>
+  <si>
+    <t>ecbed</t>
+  </si>
+  <si>
+    <t>iynik memed</t>
+  </si>
+  <si>
+    <t>atwruem</t>
+  </si>
+  <si>
+    <t>fanruz eq Otei abm Wiveri</t>
+  </si>
+  <si>
+    <t>niblaw eq Otei abm Wiveri</t>
+  </si>
+  <si>
+    <t>nex usu, fanruz eq besveug abm Gavipxaw</t>
+  </si>
+  <si>
+    <t>niblaw eq Besveug abm Gavipxaw</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3027,6 +3162,12 @@
         <bgColor rgb="FFEFE6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -3040,7 +3181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3114,6 +3255,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3338,7 +3482,7 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1070"/>
+  <dimension ref="A1:M1074"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3349,7 +3493,7 @@
     <col min="3" max="3" customWidth="true" width="21.38" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="10.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.13" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.5" collapsed="false"/>
     <col min="7" max="7" customWidth="true" width="12.5" collapsed="false"/>
     <col min="8" max="9" customWidth="true" width="9.0" collapsed="false"/>
     <col min="10" max="10" customWidth="true" width="13.75" collapsed="false"/>
@@ -3402,27 +3546,27 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="n">
-        <f t="shared" ref="A2:A315" si="1">row()</f>
+        <f t="shared" ref="A2:A319" si="1">row()</f>
         <v>2.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -3434,26 +3578,26 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="str">
-        <f>C312</f>
+        <f>C316</f>
         <v>Gavipxaw</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>C313</f>
+        <f>C317</f>
         <v>?</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -3465,13 +3609,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3494,26 +3638,26 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="str">
-        <f t="shared" ref="J5:J6" si="2">$C$247</f>
-        <v>wawqeqo</v>
+        <f t="shared" ref="J5:J6" si="2">$C$251</f>
+        <v>quqcajo</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" ref="K5:K6" si="3">$C$4</f>
         <v>vadexbi</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -3525,26 +3669,26 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>wawqeqo</v>
+        <v>quqcajo</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>vadexbi</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3556,13 +3700,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3571,8 +3715,8 @@
         <v>oxxad</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f>$C$270</f>
-        <v>zapoxe</v>
+        <f>$C$274</f>
+        <v>facexu</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -3585,13 +3729,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3608,13 +3752,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3637,13 +3781,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3666,13 +3810,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3695,13 +3839,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3710,8 +3854,8 @@
         <v>oxxad</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>$C$270</f>
-        <v>zapoxe</v>
+        <f>$C$274</f>
+        <v>facexu</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -3724,13 +3868,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3747,13 +3891,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3776,13 +3920,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3805,13 +3949,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3834,13 +3978,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3849,8 +3993,8 @@
         <v>oxxad</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f>$C$270</f>
-        <v>zapoxe</v>
+        <f>$C$274</f>
+        <v>facexu</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -3863,13 +4007,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -3886,13 +4030,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -3915,13 +4059,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -3944,13 +4088,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3973,13 +4117,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3988,8 +4132,8 @@
         <v>oxxad</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f>$C$270</f>
-        <v>zapoxe</v>
+        <f>$C$274</f>
+        <v>facexu</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -4002,13 +4146,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -4025,13 +4169,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -4054,13 +4198,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4083,13 +4227,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4112,13 +4256,13 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H27" s="3">
         <v>1910.0</v>
@@ -4127,15 +4271,15 @@
         <v>1995.0</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f>$C$247</f>
-        <v>wawqeqo</v>
+        <f>$C$251</f>
+        <v>quqcajo</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>$C$4</f>
         <v>vadexbi</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -4147,13 +4291,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H28" s="9">
         <v>13363.0</v>
@@ -4164,7 +4308,7 @@
         <v>ijhemge</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f>$C$238</f>
+        <f>$C$242</f>
         <v>Zewcev</v>
       </c>
       <c r="L28" s="10"/>
@@ -4178,13 +4322,13 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -4201,13 +4345,13 @@
         <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -4230,13 +4374,13 @@
         <v>13</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4253,13 +4397,13 @@
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -4282,13 +4426,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4305,13 +4449,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4334,13 +4478,13 @@
         <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4363,13 +4507,13 @@
         <v>13</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4392,13 +4536,13 @@
         <v>20</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4415,13 +4559,13 @@
         <v>20</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4444,13 +4588,13 @@
         <v>20</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4473,13 +4617,13 @@
         <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4502,13 +4646,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4531,13 +4675,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -4554,13 +4698,13 @@
         <v>20</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -4583,13 +4727,13 @@
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4612,13 +4756,13 @@
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -4641,13 +4785,13 @@
         <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -4664,13 +4808,13 @@
         <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4693,13 +4837,13 @@
         <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4716,13 +4860,13 @@
         <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -4745,13 +4889,13 @@
         <v>20</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -4764,7 +4908,7 @@
         <v>yesga</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -4776,13 +4920,13 @@
         <v>13</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -4799,13 +4943,13 @@
         <v>20</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -4828,13 +4972,13 @@
         <v>20</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4857,13 +5001,13 @@
         <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4886,13 +5030,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4909,13 +5053,13 @@
         <v>20</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -4938,13 +5082,13 @@
         <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -4967,13 +5111,13 @@
         <v>20</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H58" s="22">
         <v>13989.0</v>
@@ -4986,7 +5130,7 @@
         <v>ijhemge</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" ref="K58:K59" si="25">$C$238</f>
+        <f t="shared" ref="K58:K59" si="25">$C$242</f>
         <v>Zewcev</v>
       </c>
       <c r="L58" s="2"/>
@@ -5000,13 +5144,13 @@
         <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H59" s="22">
         <v>14618.0</v>
@@ -5031,13 +5175,13 @@
         <v>20</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="H60" s="22">
         <v>15744.0</v>
@@ -5056,13 +5200,13 @@
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H61" s="22">
         <v>23733.0</v>
@@ -5087,13 +5231,13 @@
         <v>20</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H62" s="22">
         <v>24222.0</v>
@@ -5118,13 +5262,13 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H63" s="22">
         <v>25858.0</v>
@@ -5149,13 +5293,13 @@
         <v>20</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="H64" s="22">
         <v>23851.0</v>
@@ -5164,7 +5308,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="3" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -5176,13 +5320,13 @@
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H65" s="22">
         <v>35129.0</v>
@@ -5207,13 +5351,13 @@
         <v>20</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="H66" s="22">
         <v>25606.0</v>
@@ -5222,7 +5366,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="3" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -5234,13 +5378,13 @@
         <v>20</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="H67" s="22">
         <v>36756.0</v>
@@ -5265,13 +5409,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H68" s="22">
         <v>15377.0</v>
@@ -5282,7 +5426,7 @@
         <v>ijhemge</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f>$C$238</f>
+        <f>$C$242</f>
         <v>Zewcev</v>
       </c>
       <c r="L68" s="2"/>
@@ -5296,13 +5440,13 @@
         <v>20</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -5319,13 +5463,13 @@
         <v>20</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -5348,13 +5492,13 @@
         <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -5377,13 +5521,13 @@
         <v>20</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -5406,13 +5550,13 @@
         <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -5435,13 +5579,13 @@
         <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -5458,13 +5602,13 @@
         <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -5487,13 +5631,13 @@
         <v>20</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -5516,13 +5660,13 @@
         <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -5545,13 +5689,13 @@
         <v>13</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -5568,13 +5712,13 @@
         <v>20</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -5597,13 +5741,13 @@
         <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -5626,13 +5770,13 @@
         <v>20</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -5655,13 +5799,13 @@
         <v>20</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="2"/>
@@ -5684,13 +5828,13 @@
         <v>13</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="2"/>
@@ -5707,13 +5851,13 @@
         <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="2"/>
@@ -5736,13 +5880,13 @@
         <v>13</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -5765,13 +5909,13 @@
         <v>20</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H86" s="22">
         <v>18537.0</v>
@@ -5782,7 +5926,7 @@
         <v>ijhemge</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f>$C$238</f>
+        <f>$C$242</f>
         <v>Zewcev</v>
       </c>
       <c r="L86" s="2"/>
@@ -5796,13 +5940,13 @@
         <v>20</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -5825,13 +5969,13 @@
         <v>13</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -5848,13 +5992,13 @@
         <v>20</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -5877,13 +6021,13 @@
         <v>13</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -5906,13 +6050,13 @@
         <v>13</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H91" s="2">
         <v>1953.0</v>
@@ -5925,11 +6069,11 @@
         <v>ijhemge</v>
       </c>
       <c r="K91" s="2" t="str">
-        <f>$C$238</f>
+        <f>$C$242</f>
         <v>Zewcev</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -5941,19 +6085,19 @@
         <v>20</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="str">
-        <f>C$247</f>
-        <v>wawqeqo</v>
+        <f>C$251</f>
+        <v>quqcajo</v>
       </c>
       <c r="K92" s="2" t="str">
         <f>$C$4</f>
@@ -5970,19 +6114,19 @@
         <v>13</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="str">
-        <f>$C$262</f>
-        <v>fivizjug Idek</v>
+        <f>$C$266</f>
+        <v>tejizgap Idek</v>
       </c>
       <c r="K93" s="2" t="str">
         <f>$C$92</f>
@@ -5999,13 +6143,13 @@
         <v>20</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -6022,13 +6166,13 @@
         <v>13</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -6051,13 +6195,13 @@
         <v>20</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -6080,13 +6224,13 @@
         <v>13</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -6109,13 +6253,13 @@
         <v>13</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H98" s="3">
         <v>1934.0</v>
@@ -6124,15 +6268,15 @@
         <v>1999.0</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f>$C$262</f>
-        <v>fivizjug Idek</v>
+        <f>$C$266</f>
+        <v>tejizgap Idek</v>
       </c>
       <c r="K98" s="2" t="str">
         <f>$C$92</f>
         <v>eafwi</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -6144,20 +6288,20 @@
         <v>20</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="3" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
@@ -6169,13 +6313,13 @@
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H100" s="3">
         <v>1966.0</v>
@@ -6190,7 +6334,7 @@
         <v>sehisi</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
@@ -6202,13 +6346,13 @@
         <v>20</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>719</v>
+        <v>758</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="H101" s="3">
         <v>1966.0</v>
@@ -6217,7 +6361,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="3" t="s">
-        <v>721</v>
+        <v>760</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
@@ -6229,13 +6373,13 @@
         <v>20</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>722</v>
+        <v>761</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H102" s="3">
         <v>1995.0</v>
@@ -6250,7 +6394,7 @@
         <v>Okal</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
@@ -6262,13 +6406,13 @@
         <v>13</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H103" s="3">
         <v>1997.0</v>
@@ -6283,7 +6427,7 @@
         <v>Okal</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
@@ -6295,13 +6439,13 @@
         <v>13</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H104" s="3">
         <v>2003.0</v>
@@ -6316,7 +6460,7 @@
         <v>Okal</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>724</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
@@ -6328,13 +6472,13 @@
         <v>13</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H105" s="3">
         <v>2007.0</v>
@@ -6349,7 +6493,7 @@
         <v>Okal</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
@@ -6361,13 +6505,13 @@
         <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>727</v>
+        <v>766</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H106" s="3">
         <v>1973.0</v>
@@ -6382,7 +6526,7 @@
         <v>sehisi</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -6394,13 +6538,13 @@
         <v>20</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="H107" s="3">
         <v>1978.0</v>
@@ -6409,7 +6553,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="3" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -6421,13 +6565,13 @@
         <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H108" s="3">
         <v>2004.0</v>
@@ -6442,7 +6586,7 @@
         <v>jaqar</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -6454,13 +6598,13 @@
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H109" s="3">
         <v>2004.0</v>
@@ -6475,7 +6619,7 @@
         <v>jaqar</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -6487,19 +6631,19 @@
         <v>13</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="str">
-        <f>$C$262</f>
-        <v>fivizjug Idek</v>
+        <f>$C$266</f>
+        <v>tejizgap Idek</v>
       </c>
       <c r="K110" s="2" t="str">
         <f>$C$92</f>
@@ -6516,13 +6660,13 @@
         <v>20</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -6531,8 +6675,8 @@
         <v>dohan</v>
       </c>
       <c r="K111" s="2" t="str">
-        <f>$C$240</f>
-        <v>xehia</v>
+        <f>$C$244</f>
+        <v>galoe</v>
       </c>
       <c r="L111" s="2"/>
     </row>
@@ -6545,13 +6689,13 @@
         <v>13</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -6568,13 +6712,13 @@
         <v>13</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>735</v>
+        <v>774</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -6597,13 +6741,13 @@
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -6626,13 +6770,13 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -6641,8 +6785,8 @@
         <v>dohan</v>
       </c>
       <c r="K115" s="2" t="str">
-        <f>$C$240</f>
-        <v>xehia</v>
+        <f>$C$244</f>
+        <v>galoe</v>
       </c>
       <c r="L115" s="2"/>
     </row>
@@ -6655,13 +6799,13 @@
         <v>20</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>738</v>
+        <v>777</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -6678,13 +6822,13 @@
         <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -6707,13 +6851,13 @@
         <v>20</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>739</v>
+        <v>778</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -6722,8 +6866,8 @@
         <v>dohan</v>
       </c>
       <c r="K118" s="2" t="str">
-        <f>$C$240</f>
-        <v>xehia</v>
+        <f>$C$244</f>
+        <v>galoe</v>
       </c>
       <c r="L118" s="2"/>
     </row>
@@ -6736,19 +6880,19 @@
         <v>13</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="str">
-        <f>$C$262</f>
-        <v>fivizjug Idek</v>
+        <f>$C$266</f>
+        <v>tejizgap Idek</v>
       </c>
       <c r="K119" s="2" t="str">
         <f>$C$92</f>
@@ -6765,13 +6909,13 @@
         <v>20</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -6788,13 +6932,13 @@
         <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -6817,13 +6961,13 @@
         <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -6846,13 +6990,13 @@
         <v>13</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>744</v>
+        <v>783</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -6875,19 +7019,19 @@
         <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>745</v>
+        <v>784</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="str">
-        <f>C$247</f>
-        <v>wawqeqo</v>
+        <f>C$251</f>
+        <v>quqcajo</v>
       </c>
       <c r="K124" s="2" t="str">
         <f>$C$4</f>
@@ -6904,13 +7048,13 @@
         <v>20</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>746</v>
+        <v>785</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -6923,7 +7067,7 @@
         <v>mosmetwu</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -6935,13 +7079,13 @@
         <v>20</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -6964,13 +7108,13 @@
         <v>13</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -6987,13 +7131,13 @@
         <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -7016,13 +7160,13 @@
         <v>20</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>751</v>
+        <v>790</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -7045,13 +7189,13 @@
         <v>20</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>752</v>
+        <v>791</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -7074,13 +7218,13 @@
         <v>20</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -7103,13 +7247,13 @@
         <v>20</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>754</v>
+        <v>793</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -7132,13 +7276,13 @@
         <v>20</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>755</v>
+        <v>794</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -7161,13 +7305,13 @@
         <v>20</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>756</v>
+        <v>795</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -7190,13 +7334,13 @@
         <v>13</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>757</v>
+        <v>796</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>758</v>
+        <v>797</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -7213,13 +7357,13 @@
         <v>13</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -7242,13 +7386,13 @@
         <v>13</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -7271,13 +7415,13 @@
         <v>13</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>761</v>
+        <v>800</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -7300,13 +7444,13 @@
         <v>13</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -7329,13 +7473,13 @@
         <v>20</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -7358,13 +7502,13 @@
         <v>20</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -7387,13 +7531,13 @@
         <v>13</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -7416,13 +7560,13 @@
         <v>20</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>765</v>
+        <v>804</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>766</v>
+        <v>805</v>
       </c>
       <c r="H143" s="22">
         <v>24481.0</v>
@@ -7441,13 +7585,13 @@
         <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -7470,13 +7614,13 @@
         <v>20</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>769</v>
+        <v>808</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -7493,13 +7637,13 @@
         <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -7522,13 +7666,13 @@
         <v>20</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>770</v>
+        <v>809</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -7551,13 +7695,13 @@
         <v>13</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H148" s="3">
         <v>1889.0</v>
@@ -7574,7 +7718,7 @@
         <v>wiveri</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
@@ -7586,20 +7730,20 @@
         <v>20</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>773</v>
+        <v>812</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="3" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
@@ -7611,13 +7755,13 @@
         <v>13</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -7640,13 +7784,13 @@
         <v>20</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -7663,13 +7807,13 @@
         <v>13</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -7692,13 +7836,13 @@
         <v>13</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -7721,13 +7865,13 @@
         <v>13</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -7750,13 +7894,13 @@
         <v>13</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -7779,13 +7923,13 @@
         <v>13</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -7808,13 +7952,13 @@
         <v>20</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -7837,19 +7981,19 @@
         <v>20</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="str">
-        <f t="shared" ref="J158:J162" si="56">$C$299</f>
-        <v>Wawqeqo</v>
+        <f t="shared" ref="J158:J162" si="56">$C$303</f>
+        <v>Quqcajo</v>
       </c>
       <c r="K158" s="2" t="str">
         <f t="shared" ref="K158:K162" si="57">$C$157</f>
@@ -7866,19 +8010,19 @@
         <v>13</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="str">
         <f t="shared" si="56"/>
-        <v>Wawqeqo</v>
+        <v>Quqcajo</v>
       </c>
       <c r="K159" s="2" t="str">
         <f t="shared" si="57"/>
@@ -7895,19 +8039,19 @@
         <v>20</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="str">
         <f t="shared" si="56"/>
-        <v>Wawqeqo</v>
+        <v>Quqcajo</v>
       </c>
       <c r="K160" s="2" t="str">
         <f t="shared" si="57"/>
@@ -7924,19 +8068,19 @@
         <v>20</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="str">
         <f t="shared" si="56"/>
-        <v>Wawqeqo</v>
+        <v>Quqcajo</v>
       </c>
       <c r="K161" s="2" t="str">
         <f t="shared" si="57"/>
@@ -7953,19 +8097,19 @@
         <v>13</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2" t="str">
         <f t="shared" si="56"/>
-        <v>Wawqeqo</v>
+        <v>Quqcajo</v>
       </c>
       <c r="K162" s="2" t="str">
         <f t="shared" si="57"/>
@@ -7982,13 +8126,13 @@
         <v>20</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -8011,13 +8155,13 @@
         <v>13</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -8034,13 +8178,13 @@
         <v>13</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>735</v>
+        <v>774</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -8063,13 +8207,13 @@
         <v>20</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -8092,13 +8236,13 @@
         <v>20</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -8121,13 +8265,13 @@
         <v>20</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -8150,13 +8294,13 @@
         <v>20</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -8179,13 +8323,13 @@
         <v>13</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -8208,13 +8352,13 @@
         <v>20</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -8237,13 +8381,13 @@
         <v>13</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -8266,13 +8410,13 @@
         <v>13</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -8295,13 +8439,13 @@
         <v>13</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -8310,8 +8454,8 @@
         <v>dibaemuy</v>
       </c>
       <c r="K174" s="2" t="str">
-        <f t="shared" ref="K174:K177" si="63">$C$307</f>
-        <v>suphowa</v>
+        <f t="shared" ref="K174:K177" si="63">$C$311</f>
+        <v>gejdowo</v>
       </c>
       <c r="L174" s="2"/>
     </row>
@@ -8324,13 +8468,13 @@
         <v>13</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -8340,7 +8484,7 @@
       </c>
       <c r="K175" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L175" s="2"/>
     </row>
@@ -8353,13 +8497,13 @@
         <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>806</v>
+        <v>845</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -8369,7 +8513,7 @@
       </c>
       <c r="K176" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L176" s="2"/>
     </row>
@@ -8382,13 +8526,13 @@
         <v>13</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -8398,7 +8542,7 @@
       </c>
       <c r="K177" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L177" s="2"/>
     </row>
@@ -8411,13 +8555,13 @@
         <v>13</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -8426,7 +8570,7 @@
         <v>Uta</v>
       </c>
       <c r="K178" s="2" t="str">
-        <f>$C$271</f>
+        <f>$C$275</f>
         <v>Emami</v>
       </c>
       <c r="L178" s="2"/>
@@ -8440,13 +8584,13 @@
         <v>20</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>809</v>
+        <v>40</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>848</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -8463,13 +8607,13 @@
         <v>13</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -8492,13 +8636,13 @@
         <v>20</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -8515,13 +8659,13 @@
         <v>20</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -8544,13 +8688,13 @@
         <v>20</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -8573,13 +8717,13 @@
         <v>20</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -8602,13 +8746,13 @@
         <v>13</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -8631,13 +8775,13 @@
         <v>20</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -8660,13 +8804,13 @@
         <v>13</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -8689,13 +8833,13 @@
         <v>13</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -8704,7 +8848,7 @@
         <v>Uta</v>
       </c>
       <c r="K188" s="2" t="str">
-        <f>$C$271</f>
+        <f>$C$275</f>
         <v>Emami</v>
       </c>
       <c r="L188" s="2"/>
@@ -8718,13 +8862,13 @@
         <v>20</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>817</v>
+        <v>856</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -8741,13 +8885,13 @@
         <v>13</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -8770,13 +8914,13 @@
         <v>20</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -8799,13 +8943,13 @@
         <v>20</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>820</v>
+        <v>859</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -8828,13 +8972,13 @@
         <v>20</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>821</v>
+        <v>860</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -8843,7 +8987,7 @@
         <v>Uta</v>
       </c>
       <c r="K193" s="2" t="str">
-        <f>$C$271</f>
+        <f>$C$275</f>
         <v>Emami</v>
       </c>
       <c r="L193" s="2"/>
@@ -8857,13 +9001,13 @@
         <v>13</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>822</v>
+        <v>861</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>823</v>
+        <v>862</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -8880,13 +9024,13 @@
         <v>13</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -8909,20 +9053,20 @@
         <v>20</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F196" s="26" t="s">
-        <v>826</v>
+        <v>40</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>865</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="3" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
@@ -8934,13 +9078,13 @@
         <v>20</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>828</v>
+        <v>867</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -8963,20 +9107,20 @@
         <v>13</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>829</v>
+        <v>868</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>830</v>
+        <v>869</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="3" t="s">
-        <v>831</v>
+        <v>870</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
@@ -8988,13 +9132,13 @@
         <v>20</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>832</v>
+        <v>871</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>833</v>
+        <v>872</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -9017,13 +9161,13 @@
         <v>20</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>834</v>
+        <v>873</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -9046,13 +9190,13 @@
         <v>13</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>835</v>
+        <v>874</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -9075,20 +9219,20 @@
         <v>20</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="3" t="s">
-        <v>836</v>
+        <v>875</v>
       </c>
     </row>
     <row r="203" ht="12.75" customHeight="1">
@@ -9100,13 +9244,13 @@
         <v>13</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>837</v>
+        <v>876</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -9129,13 +9273,13 @@
         <v>13</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -9158,13 +9302,13 @@
         <v>20</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>839</v>
+        <v>878</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -9187,13 +9331,13 @@
         <v>20</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>840</v>
+        <v>879</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -9216,13 +9360,13 @@
         <v>20</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -9245,13 +9389,13 @@
         <v>13</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -9268,13 +9412,13 @@
         <v>13</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -9297,13 +9441,13 @@
         <v>20</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -9326,20 +9470,20 @@
         <v>13</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="3" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
     </row>
     <row r="212" ht="12.75" customHeight="1">
@@ -9351,13 +9495,13 @@
         <v>20</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -9380,13 +9524,13 @@
         <v>20</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -9409,13 +9553,13 @@
         <v>20</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>851</v>
+        <v>890</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -9438,13 +9582,13 @@
         <v>20</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>852</v>
+        <v>891</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -9453,7 +9597,7 @@
         <v>Uta</v>
       </c>
       <c r="K215" s="2" t="str">
-        <f>$C$271</f>
+        <f>$C$275</f>
         <v>Emami</v>
       </c>
       <c r="L215" s="2"/>
@@ -9467,20 +9611,20 @@
         <v>13</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="3" t="s">
-        <v>854</v>
+        <v>893</v>
       </c>
     </row>
     <row r="217" ht="12.75" customHeight="1">
@@ -9492,13 +9636,13 @@
         <v>13</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -9521,13 +9665,13 @@
         <v>20</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -9550,13 +9694,13 @@
         <v>13</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -9573,13 +9717,13 @@
         <v>13</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -9602,13 +9746,13 @@
         <v>13</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -9631,13 +9775,13 @@
         <v>20</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -9654,13 +9798,13 @@
         <v>13</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -9683,13 +9827,13 @@
         <v>20</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>840</v>
+        <v>879</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -9712,13 +9856,13 @@
         <v>20</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -9741,13 +9885,13 @@
         <v>13</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -9764,13 +9908,13 @@
         <v>20</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -9793,13 +9937,13 @@
         <v>20</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -9822,20 +9966,20 @@
         <v>13</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="3" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1">
@@ -9846,14 +9990,14 @@
       <c r="B230" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C230" s="26" t="s">
-        <v>872</v>
+      <c r="C230" s="27" t="s">
+        <v>911</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="H230" s="3">
         <v>1988.0</v>
@@ -9877,14 +10021,14 @@
       <c r="B231" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="26" t="s">
-        <v>874</v>
+      <c r="C231" s="27" t="s">
+        <v>913</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="H231" s="3">
         <v>1991.0</v>
@@ -9909,13 +10053,13 @@
         <v>20</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -9932,13 +10076,13 @@
         <v>13</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="H233" s="3">
         <v>2022.0</v>
@@ -9946,7 +10090,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2" t="str">
         <f>C231</f>
-        <v>dabak</v>
+        <v>lakim</v>
       </c>
       <c r="K233" s="2" t="str">
         <f>C232</f>
@@ -9963,13 +10107,13 @@
         <v>13</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
@@ -9978,11 +10122,11 @@
         <v>Uta</v>
       </c>
       <c r="K234" s="2" t="str">
-        <f>$C$271</f>
+        <f>$C$275</f>
         <v>Emami</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
@@ -9994,13 +10138,13 @@
         <v>20</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
@@ -10023,20 +10167,20 @@
         <v>13</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="3" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
@@ -10048,22 +10192,22 @@
         <v>13</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>884</v>
+        <v>923</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2" t="str">
-        <f t="shared" ref="J237:J239" si="82">$C$236</f>
+        <f>$C$236</f>
         <v>razauc</v>
       </c>
       <c r="K237" s="2" t="str">
-        <f t="shared" ref="K237:K239" si="83">$C$235</f>
+        <f>$C$235</f>
         <v>xisulu</v>
       </c>
       <c r="L237" s="2"/>
@@ -10076,32 +10220,20 @@
       <c r="B238" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>886</v>
+      <c r="C238" s="3" t="s">
+        <v>925</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="H238" s="3">
-        <v>1913.0</v>
-      </c>
-      <c r="I238" s="3">
-        <v>2006.0</v>
-      </c>
-      <c r="J238" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>razauc</v>
-      </c>
-      <c r="K238" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v>xisulu</v>
-      </c>
-      <c r="L238" s="3" t="s">
-        <v>887</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="3"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="1" t="n">
@@ -10112,29 +10244,25 @@
         <v>20</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>888</v>
+        <v>927</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="H239" s="3">
-        <v>1925.0</v>
-      </c>
-      <c r="I239" s="3">
-        <v>2019.0</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
       <c r="J239" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>razauc</v>
+        <f t="shared" ref="J239:J241" si="82">$C$237</f>
+        <v>xobsa</v>
       </c>
       <c r="K239" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v>xisulu</v>
-      </c>
-      <c r="L239" s="2"/>
+        <f t="shared" ref="K239:K241" si="83">$C$238</f>
+        <v>yujuxea</v>
+      </c>
+      <c r="L239" s="3"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="1" t="n">
@@ -10144,78 +10272,90 @@
       <c r="B240" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>889</v>
+      <c r="C240" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
       <c r="J240" s="2" t="str">
-        <f>$C$272</f>
-        <v>Wesliat</v>
+        <f t="shared" si="82"/>
+        <v>xobsa</v>
       </c>
       <c r="K240" s="2" t="str">
-        <f>$C$239</f>
-        <v>etsum</v>
-      </c>
-      <c r="L240" s="2"/>
+        <f t="shared" si="83"/>
+        <v>yujuxea</v>
+      </c>
+      <c r="L240" s="3"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="1" t="n">
         <f t="shared" si="1"/>
         <v>241.0</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>13</v>
+      <c r="B241" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>735</v>
+        <v>929</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="2" t="str">
+        <f t="shared" si="82"/>
+        <v>xobsa</v>
+      </c>
+      <c r="K241" s="2" t="str">
+        <f t="shared" si="83"/>
+        <v>yujuxea</v>
+      </c>
+      <c r="L241" s="3"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="1" t="n">
         <f t="shared" si="1"/>
         <v>242.0</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>890</v>
+      <c r="B242" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1913.0</v>
+      </c>
+      <c r="I242" s="3">
+        <v>2006.0</v>
+      </c>
       <c r="J242" s="2" t="str">
-        <f t="shared" ref="J242:J243" si="84">$C$272</f>
-        <v>Wesliat</v>
+        <f t="shared" ref="J242:J243" si="84">$C$236</f>
+        <v>razauc</v>
       </c>
       <c r="K242" s="2" t="str">
-        <f t="shared" ref="K242:K243" si="85">$C$239</f>
-        <v>etsum</v>
-      </c>
-      <c r="L242" s="2"/>
+        <f t="shared" ref="K242:K243" si="85">$C$235</f>
+        <v>xisulu</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="1" t="n">
@@ -10226,23 +10366,27 @@
         <v>20</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>857</v>
+        <v>932</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1925.0</v>
+      </c>
+      <c r="I243" s="3">
+        <v>2019.0</v>
+      </c>
       <c r="J243" s="2" t="str">
         <f t="shared" si="84"/>
-        <v>Wesliat</v>
+        <v>razauc</v>
       </c>
       <c r="K243" s="2" t="str">
         <f t="shared" si="85"/>
-        <v>etsum</v>
+        <v>xisulu</v>
       </c>
       <c r="L243" s="2"/>
     </row>
@@ -10254,24 +10398,24 @@
       <c r="B244" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>891</v>
+      <c r="C244" s="2" t="s">
+        <v>933</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2" t="str">
-        <f>$C$236</f>
-        <v>razauc</v>
+        <f>$C$276</f>
+        <v>Wesliat</v>
       </c>
       <c r="K244" s="2" t="str">
-        <f>$C$235</f>
-        <v>xisulu</v>
+        <f>$C$243</f>
+        <v>ogcoq</v>
       </c>
       <c r="L244" s="2"/>
     </row>
@@ -10284,24 +10428,18 @@
         <v>13</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>892</v>
+        <v>774</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>587</v>
+        <v>125</v>
       </c>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
-      <c r="J245" s="2" t="str">
-        <f>C314</f>
-        <v>Uta</v>
-      </c>
-      <c r="K245" s="2" t="str">
-        <f>C315</f>
-        <v>?</v>
-      </c>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
@@ -10309,91 +10447,85 @@
         <f t="shared" si="1"/>
         <v>246.0</v>
       </c>
-      <c r="B246" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C246" s="26" t="s">
-        <v>893</v>
+      <c r="B246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F246" s="26" t="s">
-        <v>824</v>
+        <v>23</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2" t="str">
-        <f>C267</f>
-        <v>Zetiq</v>
+        <f t="shared" ref="J246:J247" si="86">$C$276</f>
+        <v>Wesliat</v>
       </c>
       <c r="K246" s="2" t="str">
-        <f>C268</f>
-        <v>?</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>894</v>
-      </c>
+        <f t="shared" ref="K246:K247" si="87">$C$243</f>
+        <v>ogcoq</v>
+      </c>
+      <c r="L246" s="2"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="1" t="n">
         <f t="shared" si="1"/>
         <v>247.0</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>895</v>
+      <c r="B247" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
       <c r="J247" s="2" t="str">
-        <f t="shared" ref="J247:J248" si="86">$C$245</f>
+        <f t="shared" si="86"/>
         <v>Wesliat</v>
       </c>
       <c r="K247" s="2" t="str">
-        <f t="shared" ref="K247:K248" si="87">$C$246</f>
-        <v>Zoja</v>
-      </c>
-      <c r="L247" s="3" t="s">
-        <v>896</v>
-      </c>
+        <f t="shared" si="87"/>
+        <v>ogcoq</v>
+      </c>
+      <c r="L247" s="2"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="1" t="n">
         <f t="shared" si="1"/>
         <v>248.0</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>13</v>
+      <c r="B248" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>712</v>
+        <v>935</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>587</v>
+        <v>924</v>
       </c>
       <c r="H248" s="2"/>
-      <c r="I248" s="9">
-        <v>11228.0</v>
-      </c>
+      <c r="I248" s="2"/>
       <c r="J248" s="2" t="str">
-        <f t="shared" si="86"/>
-        <v>Wesliat</v>
+        <f>$C$236</f>
+        <v>razauc</v>
       </c>
       <c r="K248" s="2" t="str">
-        <f t="shared" si="87"/>
-        <v>Zoja</v>
+        <f>$C$235</f>
+        <v>xisulu</v>
       </c>
       <c r="L248" s="2"/>
     </row>
@@ -10402,30 +10534,26 @@
         <f t="shared" si="1"/>
         <v>249.0</v>
       </c>
-      <c r="B249" s="7" t="s">
-        <v>20</v>
+      <c r="B249" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H249" s="3">
-        <v>1876.0</v>
-      </c>
-      <c r="I249" s="3">
-        <v>1930.0</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
       <c r="J249" s="2" t="str">
-        <f>C312</f>
-        <v>Gavipxaw</v>
+        <f>C318</f>
+        <v>Uta</v>
       </c>
       <c r="K249" s="2" t="str">
-        <f>C313</f>
+        <f>C319</f>
         <v>?</v>
       </c>
       <c r="L249" s="2"/>
@@ -10438,30 +10566,28 @@
       <c r="B250" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>898</v>
+      <c r="C250" s="27" t="s">
+        <v>937</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H250" s="3">
-        <v>1894.0</v>
-      </c>
-      <c r="I250" s="3">
-        <v>1971.0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F250" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
       <c r="J250" s="2" t="str">
-        <f>$C$248</f>
-        <v>Uta</v>
+        <f>C271</f>
+        <v>Zetiq</v>
       </c>
       <c r="K250" s="2" t="str">
-        <f>$C$249</f>
-        <v>uqao</v>
-      </c>
-      <c r="L250" s="2"/>
+        <f>C272</f>
+        <v>?</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="1" t="n">
@@ -10471,20 +10597,28 @@
       <c r="B251" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>899</v>
+      <c r="C251" s="2" t="s">
+        <v>939</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>900</v>
+        <v>626</v>
       </c>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
+      <c r="J251" s="2" t="str">
+        <f t="shared" ref="J251:J252" si="88">$C$249</f>
+        <v>Wesliat</v>
+      </c>
+      <c r="K251" s="2" t="str">
+        <f t="shared" ref="K251:K252" si="89">$C$250</f>
+        <v>Zoja</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="1" t="n">
@@ -10495,27 +10629,25 @@
         <v>13</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>901</v>
+        <v>751</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H252" s="3">
-        <v>1911.0</v>
-      </c>
-      <c r="I252" s="3">
-        <v>2012.0</v>
+        <v>626</v>
+      </c>
+      <c r="H252" s="2"/>
+      <c r="I252" s="9">
+        <v>11228.0</v>
       </c>
       <c r="J252" s="2" t="str">
-        <f>$C$251</f>
-        <v>Gicad</v>
+        <f t="shared" si="88"/>
+        <v>Wesliat</v>
       </c>
       <c r="K252" s="2" t="str">
-        <f>$C$250</f>
-        <v>Gatifo hikxu</v>
+        <f t="shared" si="89"/>
+        <v>Zoja</v>
       </c>
       <c r="L252" s="2"/>
     </row>
@@ -10528,46 +10660,62 @@
         <v>20</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>66</v>
+        <v>941</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="H253" s="3">
+        <v>1876.0</v>
+      </c>
+      <c r="I253" s="3">
+        <v>1930.0</v>
+      </c>
+      <c r="J253" s="2" t="str">
+        <f>C316</f>
+        <v>Gavipxaw</v>
+      </c>
+      <c r="K253" s="2" t="str">
+        <f>C317</f>
+        <v>?</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="1" t="n">
         <f t="shared" si="1"/>
         <v>254.0</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>13</v>
+      <c r="B254" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>712</v>
+        <v>943</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="H254" s="3">
+        <v>1894.0</v>
+      </c>
+      <c r="I254" s="3">
+        <v>1971.0</v>
+      </c>
       <c r="J254" s="2" t="str">
-        <f t="shared" ref="J254:J255" si="88">$C$252</f>
-        <v>Imreq</v>
+        <f>$C$252</f>
+        <v>Uta</v>
       </c>
       <c r="K254" s="2" t="str">
-        <f t="shared" ref="K254:K255" si="89">$C$253</f>
-        <v>??</v>
+        <f>$C$253</f>
+        <v>otei</v>
       </c>
       <c r="L254" s="2"/>
     </row>
@@ -10576,28 +10724,22 @@
         <f t="shared" si="1"/>
         <v>255.0</v>
       </c>
-      <c r="B255" s="7" t="s">
-        <v>20</v>
+      <c r="B255" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
-      <c r="J255" s="2" t="str">
-        <f t="shared" si="88"/>
-        <v>Imreq</v>
-      </c>
-      <c r="K255" s="2" t="str">
-        <f t="shared" si="89"/>
-        <v>??</v>
-      </c>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
@@ -10609,25 +10751,27 @@
         <v>13</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H256" s="2"/>
+        <v>947</v>
+      </c>
+      <c r="H256" s="3">
+        <v>1911.0</v>
+      </c>
       <c r="I256" s="3">
-        <v>1993.0</v>
+        <v>2012.0</v>
       </c>
       <c r="J256" s="2" t="str">
-        <f t="shared" ref="J256:J257" si="90">$C$251</f>
+        <f>$C$255</f>
         <v>Gicad</v>
       </c>
       <c r="K256" s="2" t="str">
-        <f t="shared" ref="K256:K257" si="91">$C$250</f>
-        <v>Gatifo hikxu</v>
+        <f>$C$254</f>
+        <v>Gatifo locke</v>
       </c>
       <c r="L256" s="2"/>
     </row>
@@ -10640,28 +10784,18 @@
         <v>20</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>905</v>
+        <v>65</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="H257" s="3">
-        <v>1921.0</v>
-      </c>
-      <c r="I257" s="3">
-        <v>2006.0</v>
-      </c>
-      <c r="J257" s="2" t="str">
-        <f t="shared" si="90"/>
-        <v>Gicad</v>
-      </c>
-      <c r="K257" s="2" t="str">
-        <f t="shared" si="91"/>
-        <v>Gatifo hikxu</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
@@ -10673,18 +10807,24 @@
         <v>13</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>66</v>
+        <v>751</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>126</v>
+        <v>947</v>
       </c>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
+      <c r="J258" s="2" t="str">
+        <f t="shared" ref="J258:J259" si="90">$C$256</f>
+        <v>Imreq</v>
+      </c>
+      <c r="K258" s="2" t="str">
+        <f t="shared" ref="K258:K259" si="91">$C$257</f>
+        <v>??</v>
+      </c>
       <c r="L258" s="2"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
@@ -10696,25 +10836,23 @@
         <v>20</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>126</v>
+        <v>947</v>
       </c>
       <c r="H259" s="2"/>
-      <c r="I259" s="3">
-        <v>1971.0</v>
-      </c>
+      <c r="I259" s="2"/>
       <c r="J259" s="2" t="str">
-        <f t="shared" ref="J259:J261" si="92">$C$258</f>
+        <f t="shared" si="90"/>
+        <v>Imreq</v>
+      </c>
+      <c r="K259" s="2" t="str">
+        <f t="shared" si="91"/>
         <v>??</v>
-      </c>
-      <c r="K259" s="2" t="str">
-        <f t="shared" ref="K259:K261" si="93">$C$257</f>
-        <v>Nuftoy</v>
       </c>
       <c r="L259" s="2"/>
     </row>
@@ -10723,29 +10861,29 @@
         <f t="shared" si="1"/>
         <v>260.0</v>
       </c>
-      <c r="B260" s="7" t="s">
-        <v>20</v>
+      <c r="B260" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>126</v>
+        <v>947</v>
       </c>
       <c r="H260" s="2"/>
       <c r="I260" s="3">
-        <v>1974.0</v>
+        <v>1993.0</v>
       </c>
       <c r="J260" s="2" t="str">
-        <f t="shared" si="92"/>
-        <v>??</v>
+        <f t="shared" ref="J260:J261" si="92">$C$255</f>
+        <v>Gicad</v>
       </c>
       <c r="K260" s="2" t="str">
-        <f t="shared" si="93"/>
-        <v>Nuftoy</v>
+        <f t="shared" ref="K260:K261" si="93">$C$254</f>
+        <v>Gatifo locke</v>
       </c>
       <c r="L260" s="2"/>
     </row>
@@ -10758,23 +10896,27 @@
         <v>20</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
+        <v>947</v>
+      </c>
+      <c r="H261" s="3">
+        <v>1921.0</v>
+      </c>
+      <c r="I261" s="3">
+        <v>2006.0</v>
+      </c>
       <c r="J261" s="2" t="str">
         <f t="shared" si="92"/>
-        <v>??</v>
+        <v>Gicad</v>
       </c>
       <c r="K261" s="2" t="str">
         <f t="shared" si="93"/>
-        <v>Nuftoy</v>
+        <v>Gatifo locke</v>
       </c>
       <c r="L261" s="2"/>
     </row>
@@ -10786,30 +10928,20 @@
       <c r="B262" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>909</v>
+      <c r="C262" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H262" s="9" t="s">
-        <v>499</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-      <c r="J262" s="2" t="str">
-        <f t="shared" ref="J262:J263" si="94">$C$248</f>
-        <v>Uta</v>
-      </c>
-      <c r="K262" s="2" t="str">
-        <f t="shared" ref="K262:K263" si="95">$C$249</f>
-        <v>uqao</v>
-      </c>
-      <c r="L262" s="3" t="s">
-        <v>910</v>
-      </c>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="1" t="n">
@@ -10820,23 +10952,25 @@
         <v>20</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H263" s="9"/>
-      <c r="I263" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="H263" s="2"/>
+      <c r="I263" s="3">
+        <v>1971.0</v>
+      </c>
       <c r="J263" s="2" t="str">
-        <f t="shared" si="94"/>
-        <v>Uta</v>
+        <f t="shared" ref="J263:J265" si="94">$C$262</f>
+        <v>??</v>
       </c>
       <c r="K263" s="2" t="str">
-        <f t="shared" si="95"/>
-        <v>uqao</v>
+        <f t="shared" ref="K263:K265" si="95">$C$261</f>
+        <v>Nuftoy</v>
       </c>
       <c r="L263" s="2"/>
     </row>
@@ -10845,22 +10979,30 @@
         <f t="shared" si="1"/>
         <v>264.0</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>13</v>
+      <c r="B264" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>912</v>
+        <v>952</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H264" s="9"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="H264" s="2"/>
+      <c r="I264" s="3">
+        <v>1974.0</v>
+      </c>
+      <c r="J264" s="2" t="str">
+        <f t="shared" si="94"/>
+        <v>??</v>
+      </c>
+      <c r="K264" s="2" t="str">
+        <f t="shared" si="95"/>
+        <v>Nuftoy</v>
+      </c>
       <c r="L264" s="2"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
@@ -10868,27 +11010,27 @@
         <f t="shared" si="1"/>
         <v>265.0</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>13</v>
+      <c r="B265" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H265" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="2" t="str">
-        <f>$C$264</f>
-        <v>medux</v>
+        <f t="shared" si="94"/>
+        <v>??</v>
       </c>
       <c r="K265" s="2" t="str">
-        <f>$C$263</f>
-        <v>kkodade</v>
+        <f t="shared" si="95"/>
+        <v>Nuftoy</v>
       </c>
       <c r="L265" s="2"/>
     </row>
@@ -10897,24 +11039,32 @@
         <f t="shared" si="1"/>
         <v>266.0</v>
       </c>
-      <c r="B266" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>126</v>
+      <c r="B266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H266" s="9"/>
+        <v>626</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>523</v>
+      </c>
       <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
+      <c r="J266" s="2" t="str">
+        <f t="shared" ref="J266:J267" si="96">$C$252</f>
+        <v>Uta</v>
+      </c>
+      <c r="K266" s="2" t="str">
+        <f t="shared" ref="K266:K267" si="97">$C$253</f>
+        <v>otei</v>
+      </c>
       <c r="L266" s="3" t="s">
-        <v>914</v>
+        <v>955</v>
       </c>
     </row>
     <row r="267" ht="12.75" customHeight="1">
@@ -10922,25 +11072,27 @@
         <f t="shared" si="1"/>
         <v>267.0</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>13</v>
+      <c r="B267" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="E267" s="3"/>
+        <v>956</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F267" s="3" t="s">
-        <v>824</v>
+        <v>626</v>
       </c>
       <c r="H267" s="9"/>
       <c r="I267" s="2"/>
       <c r="J267" s="2" t="str">
-        <f>C265</f>
-        <v>yeyxo</v>
+        <f t="shared" si="96"/>
+        <v>Uta</v>
       </c>
       <c r="K267" s="2" t="str">
-        <f>C266</f>
-        <v>?</v>
+        <f t="shared" si="97"/>
+        <v>otei</v>
       </c>
       <c r="L267" s="2"/>
     </row>
@@ -10949,45 +11101,51 @@
         <f t="shared" si="1"/>
         <v>268.0</v>
       </c>
-      <c r="B268" s="7" t="s">
-        <v>20</v>
+      <c r="B268" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E268" s="3"/>
+        <v>957</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F268" s="3" t="s">
-        <v>126</v>
+        <v>863</v>
       </c>
       <c r="H268" s="9"/>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
-      <c r="L268" s="3" t="s">
-        <v>916</v>
-      </c>
+      <c r="L268" s="2"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="1" t="n">
         <f t="shared" si="1"/>
         <v>269.0</v>
       </c>
-      <c r="B269" s="7" t="s">
-        <v>20</v>
+      <c r="B269" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>917</v>
+        <v>958</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>918</v>
+        <v>863</v>
       </c>
       <c r="H269" s="9"/>
       <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
+      <c r="J269" s="2" t="str">
+        <f>$C$268</f>
+        <v>tabed</v>
+      </c>
+      <c r="K269" s="2" t="str">
+        <f>$C$267</f>
+        <v>nvawabi</v>
+      </c>
       <c r="L269" s="2"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
@@ -10998,29 +11156,21 @@
       <c r="B270" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C270" s="27" t="s">
-        <v>919</v>
+      <c r="C270" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H270" s="3">
-        <v>1903.0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H270" s="9"/>
       <c r="I270" s="2"/>
-      <c r="J270" s="2" t="str">
-        <f t="shared" ref="J270:J273" si="96">$C$248</f>
-        <v>Uta</v>
-      </c>
-      <c r="K270" s="2" t="str">
-        <f t="shared" ref="K270:K273" si="97">$C$249</f>
-        <v>uqao</v>
-      </c>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
       <c r="L270" s="3" t="s">
-        <v>920</v>
+        <v>959</v>
       </c>
     </row>
     <row r="271" ht="12.75" customHeight="1">
@@ -11028,98 +11178,72 @@
         <f t="shared" si="1"/>
         <v>271.0</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>20</v>
+      <c r="B271" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="E271" s="3"/>
       <c r="F271" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H271" s="3">
-        <v>1904.0</v>
-      </c>
-      <c r="I271" s="3">
-        <v>1988.0</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H271" s="9"/>
+      <c r="I271" s="2"/>
       <c r="J271" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v>Uta</v>
+        <f>C269</f>
+        <v>kuzta</v>
       </c>
       <c r="K271" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v>uqao</v>
-      </c>
-      <c r="L271" s="3" t="s">
-        <v>922</v>
-      </c>
+        <f>C270</f>
+        <v>?</v>
+      </c>
+      <c r="L271" s="2"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="1" t="n">
         <f t="shared" si="1"/>
         <v>272.0</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>13</v>
+      <c r="B272" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E272" s="3"/>
       <c r="F272" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H272" s="28">
-        <v>1574.0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H272" s="9"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v>Uta</v>
-      </c>
-      <c r="K272" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v>uqao</v>
-      </c>
-      <c r="L272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="3" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="1" t="n">
         <f t="shared" si="1"/>
         <v>273.0</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>13</v>
+      <c r="B273" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>923</v>
+        <v>962</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H273" s="3">
-        <v>1912.0</v>
-      </c>
-      <c r="I273" s="3">
-        <v>1999.0</v>
-      </c>
-      <c r="J273" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v>Uta</v>
-      </c>
-      <c r="K273" s="2" t="str">
-        <f t="shared" si="97"/>
-        <v>uqao</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="H273" s="9"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
@@ -11130,20 +11254,30 @@
       <c r="B274" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>924</v>
+      <c r="C274" s="28" t="s">
+        <v>964</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H274" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="H274" s="3">
+        <v>1903.0</v>
+      </c>
       <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
+      <c r="J274" s="2" t="str">
+        <f t="shared" ref="J274:J277" si="98">$C$252</f>
+        <v>Uta</v>
+      </c>
+      <c r="K274" s="2" t="str">
+        <f t="shared" ref="K274:K277" si="99">$C$253</f>
+        <v>otei</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="1" t="n">
@@ -11154,25 +11288,31 @@
         <v>20</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>925</v>
+        <v>966</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="H275" s="3">
+        <v>1904.0</v>
+      </c>
+      <c r="I275" s="3">
+        <v>1988.0</v>
+      </c>
       <c r="J275" s="2" t="str">
-        <f>$C$273</f>
-        <v>ivis-vackul</v>
+        <f t="shared" si="98"/>
+        <v>Uta</v>
       </c>
       <c r="K275" s="2" t="str">
-        <f>$C$274</f>
-        <v>acxe</v>
-      </c>
-      <c r="L275" s="2"/>
+        <f t="shared" si="99"/>
+        <v>otei</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="1" t="n">
@@ -11183,48 +11323,60 @@
         <v>13</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>66</v>
+        <v>936</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H276" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="H276" s="29">
+        <v>1574.0</v>
+      </c>
       <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="3"/>
+      <c r="J276" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v>Uta</v>
+      </c>
+      <c r="K276" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v>otei</v>
+      </c>
+      <c r="L276" s="2"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="1" t="n">
         <f t="shared" si="1"/>
         <v>277.0</v>
       </c>
-      <c r="B277" s="7" t="s">
-        <v>20</v>
+      <c r="B277" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>678</v>
+        <v>968</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="H277" s="3">
+        <v>1912.0</v>
+      </c>
+      <c r="I277" s="3">
+        <v>1999.0</v>
+      </c>
       <c r="J277" s="2" t="str">
-        <f>$C$276</f>
-        <v>??</v>
+        <f t="shared" si="98"/>
+        <v>Uta</v>
       </c>
       <c r="K277" s="2" t="str">
-        <f>$C$275</f>
-        <v>xuhecu</v>
-      </c>
-      <c r="L277" s="3"/>
+        <f t="shared" si="99"/>
+        <v>otei</v>
+      </c>
+      <c r="L277" s="2"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="1" t="n">
@@ -11235,100 +11387,100 @@
         <v>20</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>926</v>
+        <v>969</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>587</v>
+        <v>125</v>
       </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
-      <c r="J278" s="2" t="str">
-        <f>$C$273</f>
-        <v>ivis-vackul</v>
-      </c>
-      <c r="K278" s="2" t="str">
-        <f>$C$274</f>
-        <v>acxe</v>
-      </c>
-      <c r="L278" s="3"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="1" t="n">
         <f t="shared" si="1"/>
         <v>279.0</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>13</v>
+      <c r="B279" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>927</v>
+        <v>970</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>928</v>
+        <v>626</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="3"/>
+      <c r="J279" s="2" t="str">
+        <f>$C$277</f>
+        <v>ohak-mofzes</v>
+      </c>
+      <c r="K279" s="2" t="str">
+        <f>$C$278</f>
+        <v>ibru</v>
+      </c>
+      <c r="L279" s="2"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="1" t="n">
         <f t="shared" si="1"/>
         <v>280.0</v>
       </c>
-      <c r="B280" s="7" t="s">
-        <v>20</v>
+      <c r="B280" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>840</v>
+        <v>65</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>929</v>
+        <v>125</v>
       </c>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
-      <c r="J280" s="2" t="str">
-        <f>$C$279</f>
-        <v>Yaganb</v>
-      </c>
-      <c r="K280" s="2" t="str">
-        <f>$C$278</f>
-        <v>Uqao</v>
-      </c>
-      <c r="L280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="3"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="1" t="n">
         <f t="shared" si="1"/>
         <v>281.0</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>13</v>
+      <c r="B281" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>930</v>
+        <v>717</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>931</v>
+        <v>125</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
+      <c r="J281" s="2" t="str">
+        <f>$C$280</f>
+        <v>??</v>
+      </c>
+      <c r="K281" s="2" t="str">
+        <f>$C$279</f>
+        <v>viteha</v>
+      </c>
+      <c r="L281" s="3"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="1" t="n">
@@ -11339,25 +11491,25 @@
         <v>20</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>932</v>
+        <v>971</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>933</v>
+        <v>626</v>
       </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2" t="str">
-        <f>$C$281</f>
-        <v>pukp</v>
+        <f>$C$277</f>
+        <v>ohak-mofzes</v>
       </c>
       <c r="K282" s="2" t="str">
-        <f>$C$280</f>
-        <v>Xivga</v>
-      </c>
-      <c r="L282" s="2"/>
+        <f>$C$278</f>
+        <v>ibru</v>
+      </c>
+      <c r="L282" s="3"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="1" t="n">
@@ -11368,21 +11520,19 @@
         <v>13</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>712</v>
+        <v>972</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>934</v>
+        <v>973</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
-      <c r="L283" s="3" t="s">
-        <v>935</v>
-      </c>
+      <c r="L283" s="3"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="1" t="n">
@@ -11393,18 +11543,24 @@
         <v>20</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>126</v>
+        <v>879</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>529</v>
+        <v>23</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>126</v>
+        <v>974</v>
       </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
+      <c r="J284" s="2" t="str">
+        <f>$C$283</f>
+        <v>Yaganb</v>
+      </c>
+      <c r="K284" s="2" t="str">
+        <f>$C$282</f>
+        <v>Otei</v>
+      </c>
       <c r="L284" s="2"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
@@ -11415,25 +11571,19 @@
       <c r="B285" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>936</v>
+      <c r="C285" s="3" t="s">
+        <v>975</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>937</v>
+        <v>976</v>
       </c>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
-      <c r="J285" s="2" t="str">
-        <f>C283</f>
-        <v>Uta</v>
-      </c>
-      <c r="K285" s="2" t="str">
-        <f>C284</f>
-        <v>?</v>
-      </c>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
@@ -11444,24 +11594,24 @@
       <c r="B286" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>938</v>
+      <c r="C286" s="3" t="s">
+        <v>977</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>529</v>
+        <v>23</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
       <c r="J286" s="2" t="str">
         <f>$C$285</f>
-        <v>apnan ofeg</v>
+        <v>pizl</v>
       </c>
       <c r="K286" s="2" t="str">
-        <f>$C$5</f>
-        <v>wexedcu</v>
+        <f>$C$284</f>
+        <v>Xivga</v>
       </c>
       <c r="L286" s="2"/>
     </row>
@@ -11473,48 +11623,44 @@
       <c r="B287" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>940</v>
+      <c r="C287" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
+      <c r="L287" s="3" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="1" t="n">
         <f t="shared" si="1"/>
         <v>288.0</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>942</v>
+      <c r="B288" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
-      <c r="J288" s="2" t="str">
-        <f t="shared" ref="J288:J291" si="98">$C$287</f>
-        <v>qikagal</v>
-      </c>
-      <c r="K288" s="2" t="str">
-        <f t="shared" ref="K288:K291" si="99">$C$286</f>
-        <v>pizuhoj</v>
-      </c>
+      <c r="J288" s="2"/>
+      <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
@@ -11526,23 +11672,23 @@
         <v>13</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>942</v>
+        <v>981</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
       <c r="J289" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v>qikagal</v>
+        <f>C287</f>
+        <v>Uta</v>
       </c>
       <c r="K289" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v>pizuhoj</v>
+        <f>C288</f>
+        <v>?</v>
       </c>
       <c r="L289" s="2"/>
     </row>
@@ -11551,27 +11697,27 @@
         <f t="shared" si="1"/>
         <v>290.0</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>13</v>
+      <c r="B290" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>942</v>
+        <v>983</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
       <c r="J290" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v>qikagal</v>
+        <f>$C$289</f>
+        <v>opnam opel</v>
       </c>
       <c r="K290" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v>pizuhoj</v>
+        <f>$C$5</f>
+        <v>wexedcu</v>
       </c>
       <c r="L290" s="2"/>
     </row>
@@ -11583,23 +11729,19 @@
       <c r="B291" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="E291" s="3"/>
+      <c r="C291" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="F291" s="2" t="s">
-        <v>942</v>
+        <v>985</v>
       </c>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
-      <c r="J291" s="2" t="str">
-        <f t="shared" si="98"/>
-        <v>qikagal</v>
-      </c>
-      <c r="K291" s="2" t="str">
-        <f t="shared" si="99"/>
-        <v>pizuhoj</v>
-      </c>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
@@ -11607,27 +11749,27 @@
         <f t="shared" si="1"/>
         <v>292.0</v>
       </c>
-      <c r="B292" s="7" t="s">
-        <v>20</v>
+      <c r="B292" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>937</v>
+        <v>986</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>987</v>
       </c>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
       <c r="J292" s="2" t="str">
-        <f>$C$285</f>
-        <v>apnan ofeg</v>
+        <f t="shared" ref="J292:J295" si="100">$C$291</f>
+        <v>xenepif</v>
       </c>
       <c r="K292" s="2" t="str">
-        <f>$C$5</f>
-        <v>wexedcu</v>
+        <f t="shared" ref="K292:K295" si="101">$C$290</f>
+        <v>fusiqef</v>
       </c>
       <c r="L292" s="2"/>
     </row>
@@ -11640,18 +11782,24 @@
         <v>13</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>948</v>
+        <v>987</v>
       </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
+      <c r="J293" s="2" t="str">
+        <f t="shared" si="100"/>
+        <v>xenepif</v>
+      </c>
+      <c r="K293" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v>fusiqef</v>
+      </c>
       <c r="L293" s="2"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
@@ -11663,23 +11811,23 @@
         <v>13</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
       <c r="J294" s="2" t="str">
-        <f t="shared" ref="J294:J296" si="100">$C$293</f>
-        <v>pfelus</v>
+        <f t="shared" si="100"/>
+        <v>xenepif</v>
       </c>
       <c r="K294" s="2" t="str">
-        <f t="shared" ref="K294:K296" si="101">$C$292</f>
-        <v>gamoe</v>
+        <f t="shared" si="101"/>
+        <v>fusiqef</v>
       </c>
       <c r="L294" s="2"/>
     </row>
@@ -11688,27 +11836,25 @@
         <f t="shared" si="1"/>
         <v>295.0</v>
       </c>
-      <c r="B295" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>529</v>
-      </c>
+      <c r="B295" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E295" s="3"/>
       <c r="F295" s="2" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
       <c r="J295" s="2" t="str">
         <f t="shared" si="100"/>
-        <v>pfelus</v>
+        <v>xenepif</v>
       </c>
       <c r="K295" s="2" t="str">
         <f t="shared" si="101"/>
-        <v>gamoe</v>
+        <v>fusiqef</v>
       </c>
       <c r="L295" s="2"/>
     </row>
@@ -11721,23 +11867,23 @@
         <v>20</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>950</v>
+        <v>991</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2" t="str">
-        <f t="shared" si="100"/>
-        <v>pfelus</v>
+        <f>$C$289</f>
+        <v>opnam opel</v>
       </c>
       <c r="K296" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v>gamoe</v>
+        <f>$C$5</f>
+        <v>wexedcu</v>
       </c>
       <c r="L296" s="2"/>
     </row>
@@ -11749,44 +11895,48 @@
       <c r="B297" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C297" s="29" t="s">
-        <v>899</v>
-      </c>
-      <c r="E297" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F297" s="29" t="s">
-        <v>788</v>
+      <c r="C297" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>993</v>
       </c>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
-      <c r="L297" s="3" t="s">
-        <v>953</v>
-      </c>
+      <c r="L297" s="2"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="1" t="n">
         <f t="shared" si="1"/>
         <v>298.0</v>
       </c>
-      <c r="B298" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C298" s="29" t="s">
-        <v>954</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>937</v>
+      <c r="B298" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
+      <c r="J298" s="2" t="str">
+        <f t="shared" ref="J298:J300" si="102">$C$297</f>
+        <v>hzujek</v>
+      </c>
+      <c r="K298" s="2" t="str">
+        <f t="shared" ref="K298:K300" si="103">$C$296</f>
+        <v>tujeo</v>
+      </c>
       <c r="L298" s="2"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
@@ -11794,27 +11944,27 @@
         <f t="shared" si="1"/>
         <v>299.0</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="E299" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F299" s="29" t="s">
-        <v>788</v>
+      <c r="B299" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2" t="str">
-        <f t="shared" ref="J299:J300" si="102">$C$297</f>
-        <v>Gicad</v>
+        <f t="shared" si="102"/>
+        <v>hzujek</v>
       </c>
       <c r="K299" s="2" t="str">
-        <f t="shared" ref="K299:K300" si="103">$C$298</f>
-        <v>jiluje</v>
+        <f t="shared" si="103"/>
+        <v>tujeo</v>
       </c>
       <c r="L299" s="2"/>
     </row>
@@ -11823,27 +11973,27 @@
         <f t="shared" si="1"/>
         <v>300.0</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C300" s="29" t="s">
-        <v>956</v>
-      </c>
-      <c r="E300" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F300" s="29" t="s">
-        <v>788</v>
+      <c r="B300" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2" t="str">
         <f t="shared" si="102"/>
-        <v>Gicad</v>
+        <v>hzujek</v>
       </c>
       <c r="K300" s="2" t="str">
         <f t="shared" si="103"/>
-        <v>jiluje</v>
+        <v>tujeo</v>
       </c>
       <c r="L300" s="2"/>
     </row>
@@ -11852,23 +12002,25 @@
         <f t="shared" si="1"/>
         <v>301.0</v>
       </c>
-      <c r="B301" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C301" s="29" t="s">
-        <v>957</v>
-      </c>
-      <c r="E301" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>587</v>
+      <c r="B301" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="E301" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F301" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
-      <c r="L301" s="2"/>
+      <c r="L301" s="3" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="1" t="n">
@@ -11878,25 +12030,19 @@
       <c r="B302" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C302" s="29" t="s">
-        <v>958</v>
-      </c>
-      <c r="E302" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F302" s="29" t="s">
-        <v>788</v>
+      <c r="C302" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
-      <c r="J302" s="2" t="str">
-        <f>$C$300</f>
-        <v>ohzuj</v>
-      </c>
-      <c r="K302" s="2" t="str">
-        <f>$C$301</f>
-        <v>pekebqu</v>
-      </c>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
@@ -11904,27 +12050,27 @@
         <f t="shared" si="1"/>
         <v>303.0</v>
       </c>
-      <c r="B303" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C303" s="29" t="s">
-        <v>959</v>
-      </c>
-      <c r="E303" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F303" s="29" t="s">
-        <v>788</v>
+      <c r="B303" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E303" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F303" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2" t="str">
-        <f>$C$297</f>
+        <f t="shared" ref="J303:J304" si="104">$C$301</f>
         <v>Gicad</v>
       </c>
       <c r="K303" s="2" t="str">
-        <f>$C$298</f>
-        <v>jiluje</v>
+        <f t="shared" ref="K303:K304" si="105">$C$302</f>
+        <v>guzugi</v>
       </c>
       <c r="L303" s="2"/>
     </row>
@@ -11936,19 +12082,25 @@
       <c r="B304" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C304" s="29" t="s">
-        <v>960</v>
-      </c>
-      <c r="E304" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F304" s="29" t="s">
-        <v>961</v>
+      <c r="C304" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E304" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F304" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
-      <c r="J304" s="2"/>
-      <c r="K304" s="2"/>
+      <c r="J304" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v>Gicad</v>
+      </c>
+      <c r="K304" s="2" t="str">
+        <f t="shared" si="105"/>
+        <v>guzugi</v>
+      </c>
       <c r="L304" s="2"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
@@ -11956,28 +12108,22 @@
         <f t="shared" si="1"/>
         <v>305.0</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C305" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="E305" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F305" s="29" t="s">
-        <v>788</v>
+      <c r="B305" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E305" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
-      <c r="J305" s="2" t="str">
-        <f>$C$297</f>
-        <v>Gicad</v>
-      </c>
-      <c r="K305" s="2" t="str">
-        <f>$C$298</f>
-        <v>jiluje</v>
-      </c>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
@@ -11988,19 +12134,25 @@
       <c r="B306" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C306" s="29" t="s">
-        <v>962</v>
-      </c>
-      <c r="E306" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F306" s="29" t="s">
-        <v>963</v>
+      <c r="C306" s="30" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E306" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F306" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
-      <c r="J306" s="2"/>
-      <c r="K306" s="2"/>
+      <c r="J306" s="2" t="str">
+        <f>$C$304</f>
+        <v>olxes</v>
+      </c>
+      <c r="K306" s="2" t="str">
+        <f>$C$305</f>
+        <v>mupowta</v>
+      </c>
       <c r="L306" s="2"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
@@ -12011,24 +12163,24 @@
       <c r="B307" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="E307" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F307" s="29" t="s">
-        <v>788</v>
+      <c r="C307" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E307" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F307" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
       <c r="J307" s="2" t="str">
-        <f t="shared" ref="J307:J308" si="104">$C$297</f>
+        <f>$C$301</f>
         <v>Gicad</v>
       </c>
       <c r="K307" s="2" t="str">
-        <f t="shared" ref="K307:K308" si="105">$C$298</f>
-        <v>jiluje</v>
+        <f>$C$302</f>
+        <v>guzugi</v>
       </c>
       <c r="L307" s="2"/>
     </row>
@@ -12037,28 +12189,22 @@
         <f t="shared" si="1"/>
         <v>308.0</v>
       </c>
-      <c r="B308" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C308" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>126</v>
+      <c r="B308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E308" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F308" s="30" t="s">
+        <v>1006</v>
       </c>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
-      <c r="J308" s="2" t="str">
-        <f t="shared" si="104"/>
-        <v>Gicad</v>
-      </c>
-      <c r="K308" s="2" t="str">
-        <f t="shared" si="105"/>
-        <v>jiluje</v>
-      </c>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
@@ -12069,19 +12215,25 @@
       <c r="B309" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C309" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="E309" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F309" s="29" t="s">
-        <v>966</v>
+      <c r="C309" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E309" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F309" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
-      <c r="J309" s="2"/>
-      <c r="K309" s="2"/>
+      <c r="J309" s="2" t="str">
+        <f>$C$301</f>
+        <v>Gicad</v>
+      </c>
+      <c r="K309" s="2" t="str">
+        <f>$C$302</f>
+        <v>guzugi</v>
+      </c>
       <c r="L309" s="2"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
@@ -12092,25 +12244,19 @@
       <c r="B310" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C310" s="29" t="s">
-        <v>967</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F310" s="3" t="s">
-        <v>126</v>
+      <c r="C310" s="30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E310" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F310" s="30" t="s">
+        <v>1008</v>
       </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
-      <c r="J310" s="2" t="str">
-        <f>$C$297</f>
-        <v>Gicad</v>
-      </c>
-      <c r="K310" s="2" t="str">
-        <f>$C$298</f>
-        <v>jiluje</v>
-      </c>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
@@ -12118,22 +12264,28 @@
         <f t="shared" si="1"/>
         <v>311.0</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C311" s="29" t="s">
-        <v>968</v>
-      </c>
-      <c r="E311" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F311" s="29" t="s">
-        <v>969</v>
+      <c r="B311" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E311" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F311" s="30" t="s">
+        <v>827</v>
       </c>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
-      <c r="K311" s="2"/>
+      <c r="J311" s="2" t="str">
+        <f t="shared" ref="J311:J312" si="106">$C$301</f>
+        <v>Gicad</v>
+      </c>
+      <c r="K311" s="2" t="str">
+        <f t="shared" ref="K311:K312" si="107">$C$302</f>
+        <v>guzugi</v>
+      </c>
       <c r="L311" s="2"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
@@ -12141,146 +12293,210 @@
         <f t="shared" si="1"/>
         <v>312.0</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C312" s="29" t="s">
-        <v>776</v>
+      <c r="B312" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" s="30" t="s">
+        <v>1010</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>23</v>
+        <v>582</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>587</v>
+        <v>125</v>
       </c>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="2" t="str">
-        <f>C314</f>
-        <v>Uta</v>
+        <f t="shared" si="106"/>
+        <v>Gicad</v>
       </c>
       <c r="K312" s="2" t="str">
-        <f>C315</f>
-        <v>?</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>970</v>
-      </c>
+        <f t="shared" si="107"/>
+        <v>guzugi</v>
+      </c>
+      <c r="L312" s="2"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="1" t="n">
         <f t="shared" si="1"/>
         <v>313.0</v>
       </c>
-      <c r="B313" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>126</v>
+      <c r="B313" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E313" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F313" s="30" t="s">
+        <v>1011</v>
       </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
-      <c r="L313" s="3" t="s">
-        <v>971</v>
-      </c>
+      <c r="L313" s="2"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="1" t="n">
         <f t="shared" si="1"/>
         <v>314.0</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>712</v>
+      <c r="B314" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="30" t="s">
+        <v>1012</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>23</v>
+        <v>582</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>587</v>
+        <v>125</v>
       </c>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
-      <c r="J314" s="2"/>
-      <c r="K314" s="2"/>
-      <c r="L314" s="3" t="s">
-        <v>972</v>
-      </c>
+      <c r="J314" s="2" t="str">
+        <f>$C$301</f>
+        <v>Gicad</v>
+      </c>
+      <c r="K314" s="2" t="str">
+        <f>$C$302</f>
+        <v>guzugi</v>
+      </c>
+      <c r="L314" s="2"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="1" t="n">
         <f t="shared" si="1"/>
         <v>315.0</v>
       </c>
-      <c r="B315" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>126</v>
+      <c r="B315" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E315" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F315" s="30" t="s">
+        <v>1014</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
-      <c r="L315" s="3" t="s">
-        <v>973</v>
-      </c>
+      <c r="L315" s="2"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="C316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
+      <c r="A316" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>316.0</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
-      <c r="J316" s="2"/>
-      <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
+      <c r="J316" s="2" t="str">
+        <f>C318</f>
+        <v>Uta</v>
+      </c>
+      <c r="K316" s="2" t="str">
+        <f>C319</f>
+        <v>?</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="C317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
+      <c r="A317" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>317.0</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
+      <c r="L317" s="3" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="C318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
+      <c r="A318" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>318.0</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
-      <c r="L318" s="2"/>
+      <c r="L318" s="3" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="C319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
+      <c r="A319" s="1" t="n">
+        <f t="shared" si="1"/>
+        <v>319.0</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
-      <c r="L319" s="2"/>
+      <c r="L319" s="3" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="C320" s="2"/>
@@ -19791,6 +20007,46 @@
       <c r="J1070" s="2"/>
       <c r="K1070" s="2"/>
       <c r="L1070" s="2"/>
+    </row>
+    <row r="1071" ht="12.75" customHeight="1">
+      <c r="C1071" s="2"/>
+      <c r="E1071" s="2"/>
+      <c r="F1071" s="2"/>
+      <c r="H1071" s="2"/>
+      <c r="I1071" s="2"/>
+      <c r="J1071" s="2"/>
+      <c r="K1071" s="2"/>
+      <c r="L1071" s="2"/>
+    </row>
+    <row r="1072" ht="12.75" customHeight="1">
+      <c r="C1072" s="2"/>
+      <c r="E1072" s="2"/>
+      <c r="F1072" s="2"/>
+      <c r="H1072" s="2"/>
+      <c r="I1072" s="2"/>
+      <c r="J1072" s="2"/>
+      <c r="K1072" s="2"/>
+      <c r="L1072" s="2"/>
+    </row>
+    <row r="1073" ht="12.75" customHeight="1">
+      <c r="C1073" s="2"/>
+      <c r="E1073" s="2"/>
+      <c r="F1073" s="2"/>
+      <c r="H1073" s="2"/>
+      <c r="I1073" s="2"/>
+      <c r="J1073" s="2"/>
+      <c r="K1073" s="2"/>
+      <c r="L1073" s="2"/>
+    </row>
+    <row r="1074" ht="12.75" customHeight="1">
+      <c r="C1074" s="2"/>
+      <c r="E1074" s="2"/>
+      <c r="F1074" s="2"/>
+      <c r="H1074" s="2"/>
+      <c r="I1074" s="2"/>
+      <c r="J1074" s="2"/>
+      <c r="K1074" s="2"/>
+      <c r="L1074" s="2"/>
     </row>
   </sheetData>
   <printOptions/>
